--- a/regionseng/7/business sector/by size.xlsx
+++ b/regionseng/7/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8BAD5-1677-46E1-892D-36785F7BFF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="10">
   <si>
     <t>Business Sector</t>
   </si>
@@ -49,9 +50,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -129,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -169,6 +171,12 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,6 +271,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -298,6 +323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -487,20 +529,20 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -547,8 +589,14 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -597,8 +645,14 @@
       <c r="P6" s="10">
         <v>117.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="16">
+        <v>126.2</v>
+      </c>
+      <c r="R6" s="16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -647,8 +701,14 @@
       <c r="P7" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -697,8 +757,14 @@
       <c r="P8" s="12">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="17">
+        <v>19.2</v>
+      </c>
+      <c r="R8" s="17">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -747,13 +813,19 @@
       <c r="P9" s="12">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="17">
+        <v>107</v>
+      </c>
+      <c r="R9" s="17">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -800,8 +872,14 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -850,8 +928,14 @@
       <c r="P14" s="10">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="16">
+        <v>100.3</v>
+      </c>
+      <c r="R14" s="16">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +984,14 @@
       <c r="P15" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -950,8 +1040,14 @@
       <c r="P16" s="12">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="17">
+        <v>21</v>
+      </c>
+      <c r="R16" s="17">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1000,13 +1096,19 @@
       <c r="P17" s="12">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="17">
+        <v>79.3</v>
+      </c>
+      <c r="R17" s="17">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1053,8 +1155,14 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
@@ -1103,8 +1211,14 @@
       <c r="P22" s="7">
         <v>2107</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="7">
+        <v>2330</v>
+      </c>
+      <c r="R22" s="7">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1267,14 @@
       <c r="P23" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1203,8 +1323,14 @@
       <c r="P24" s="8">
         <v>397</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="8">
+        <v>367</v>
+      </c>
+      <c r="R24" s="8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1253,13 +1379,19 @@
       <c r="P25" s="8">
         <v>1710</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="8">
+        <v>1963</v>
+      </c>
+      <c r="R25" s="8">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1306,8 +1438,14 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -1356,8 +1494,14 @@
       <c r="P30" s="10">
         <v>738.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="16">
+        <v>726.8</v>
+      </c>
+      <c r="R30" s="16">
+        <v>977.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1406,8 +1550,14 @@
       <c r="P31" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1456,8 +1606,14 @@
       <c r="P32" s="12">
         <v>675.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="17">
+        <v>981.4</v>
+      </c>
+      <c r="R32" s="17">
+        <v>1682.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1505,6 +1661,12 @@
       </c>
       <c r="P33" s="12">
         <v>760</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>658.3</v>
+      </c>
+      <c r="R33" s="17">
+        <v>827.5</v>
       </c>
     </row>
   </sheetData>
